--- a/Demo/Config/Excel/Server/MachineConfig.xlsx
+++ b/Demo/Config/Excel/Server/MachineConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Fantasy/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035CE3D-0E8C-C245-89EC-CC5CC70F88C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58342FD-9568-EB40-AD0B-DA687D87FD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -146,15 +146,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>uint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>127.0.0.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.31.37</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +582,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -606,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -723,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7">
         <v>20000</v>
